--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T09:50:04+00:00</t>
+    <t>2024-03-24T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T15:17:23+00:00</t>
+    <t>2024-03-25T22:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:02:55+00:00</t>
+    <t>2024-03-25T22:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:27:20+00:00</t>
+    <t>2024-03-26T10:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:34:23+00:00</t>
+    <t>2024-03-26T10:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:53:39+00:00</t>
+    <t>2024-03-30T10:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:56:30+00:00</t>
+    <t>2024-03-30T13:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:34:04+00:00</t>
+    <t>2024-03-30T13:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:49:38+00:00</t>
+    <t>2024-03-30T14:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T14:41:48+00:00</t>
+    <t>2024-03-30T19:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T19:04:54+00:00</t>
+    <t>2024-04-03T13:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T08:57:13+00:00</t>
+    <t>2024-04-07T09:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T09:48:24+00:00</t>
+    <t>2024-04-07T12:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
+    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:14:10+00:00</t>
+    <t>2024-04-07T12:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-07T13:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:19:46+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-04-14T06:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-14T06:15:19+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T21:25:42+00:00</t>
+    <t>2024-05-07T09:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
